--- a/data/trans_camb/P31_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P31_3_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,15 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +547,27 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +657,15 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-4,47</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,51</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2,47</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-1,1</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -639,32 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 10,34</t>
+          <t>-7,27; 26,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 14,32</t>
+          <t>-3,85; 29,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 6,97</t>
+          <t>-7,82; 26,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 5,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 6,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 7,66</t>
+          <t>-3,05; 5,57</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-3,32; 4,59</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-10,98; 0,84</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,27; 14,09</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,02; 14,23</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-6,45; 12,47</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -677,32 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,3%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>0,62%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,03%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-4,67%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1,65%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2,7%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-1,2%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -715,32 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 12,64</t>
+          <t>-7,66; 39,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 18,11</t>
+          <t>-4,03; 46,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 7,65</t>
+          <t>-8,32; 39,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 5,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 7,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 8,85</t>
+          <t>-3,14; 6,09</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-3,4; 5,02</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-11,21; 0,89</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-3,43; 17,21</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-2,12; 17,75</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-6,69; 15,68</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -757,32 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>-5,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-5,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>-15,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>1,48</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,69</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-5,54</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,97</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-3,84</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-10,53</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -795,32 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 7,34</t>
+          <t>-11,38; 0,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 5,53</t>
+          <t>-10,85; -0,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 4,88</t>
+          <t>-22,08; -8,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 2,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 4,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 2,17</t>
+          <t>-2,48; 5,75</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-5,99; 2,27</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-11,21; -0,13</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-5,97; 1,4</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-7,37; -0,38</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-15,02; -6,2</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -833,32 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>-6,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,95%</t>
+          <t>-6,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>-18,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,59%</t>
+          <t>1,65%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-1,88%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-6,19%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-2,25%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-4,39%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-12,04%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 9,78</t>
+          <t>-12,88; 0,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 7,26</t>
+          <t>-12,37; -0,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 5,67</t>
+          <t>-25,6; -9,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 2,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 5,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 2,61</t>
+          <t>-2,68; 6,63</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-6,51; 2,66</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-12,36; -0,16</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-6,68; 1,65</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-8,18; -0,38</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-16,85; -7,2</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -913,32 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,66</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>4,09</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-1,38</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-1,24</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-1,53</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -951,32 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 14,58</t>
+          <t>-2,08; 13,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 9,12</t>
+          <t>-6,25; 9,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 8,14</t>
+          <t>-9,84; 7,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 3,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 9,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 4,59</t>
+          <t>-1,85; 10,08</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,74; 4,52</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-7,44; 5,02</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 9,71</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,84; 4,9</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-6,24; 4,09</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -989,32 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>-2,33%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-2,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>5,02%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-1,7%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-1,53%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>6,54%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-0,07%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-1,99%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,93; 22,25</t>
+          <t>-2,71; 20,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 13,71</t>
+          <t>-8,05; 14,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 10,27</t>
+          <t>-13,33; 11,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 4,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,87; 13,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 6,3</t>
+          <t>-2,17; 13,04</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-7,95; 5,79</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-8,75; 6,39</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 13,48</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-6,12; 6,64</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-7,89; 5,54</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>5,12</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>-7,72</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>1,81</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-7,54</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3,32</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-7,72</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 6,66</t>
+          <t>-1,43; 11,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 5,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 4,42</t>
+          <t>-15,26; -0,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 1,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,53; 4,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,56</t>
+          <t>-2,21; 5,53</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-13,01; -2,72</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,81; 6,86</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-12,27; -3,11</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>-10,11%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-1,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>2,02%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-8,39%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-9,3%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,45 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 8,77</t>
+          <t>-1,76; 15,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 7,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 5,08</t>
+          <t>-19,43; -0,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 1,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 3,13</t>
+          <t>-2,37; 6,34</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-14,27; -3,13</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 8,5</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-14,56; -3,79</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-6,75</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,37</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-4,77</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2,13</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-5,73</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,12; 6,36</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 5,4</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-10,94; -2,36</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,32; 4,21</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-3,74; 0,98</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-7,42; -1,96</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-0,11; 4,26</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-2,09; 2,21</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-8,32; -3,22</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2,92%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-8,57%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-1,54%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-5,38%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>2,54%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-0,04%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-6,83%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-1,39; 8,37</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-2,59; 7,08</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-13,56; -3,12</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-0,35; 4,8</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-4,17; 1,11</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-8,27; -2,26</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-0,15; 5,16</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-2,45; 2,69</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-9,75; -3,86</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
